--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/44_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/44_225-80R17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
   <si>
     <t>Signal_Value_46</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Signal_Value_80</t>
-  </si>
-  <si>
-    <t>Signal_Value_81</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -550,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -665,466 +662,451 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.2347845305294789</v>
+      </c>
+      <c r="F2">
+        <v>0.02472891690729954</v>
+      </c>
+      <c r="G2">
+        <v>0.1459439615589978</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.02678440589159957</v>
+      </c>
+      <c r="J2">
+        <v>0.0051029360455349</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.08976962329008314</v>
+      </c>
+      <c r="M2">
+        <v>0.06785287095909261</v>
+      </c>
+      <c r="N2">
+        <v>0.01256375129670913</v>
+      </c>
+      <c r="O2">
+        <v>0.09626236309902</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.02780313217535163</v>
+      </c>
+      <c r="U2">
+        <v>0.07547772328995365</v>
+      </c>
+      <c r="V2">
+        <v>0.02227480674341056</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0.006929250685800225</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0.01745657870412866</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0.03055884567965112</v>
+      </c>
+      <c r="AE2">
+        <v>0.09492004136163801</v>
+      </c>
+      <c r="AF2">
+        <v>0.0175555884215751</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0.0032306733606753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.2322838788058234</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.2565491549287454</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.02237471229987421</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.03777298937769286</v>
-      </c>
-      <c r="M2">
-        <v>0.01574234655326109</v>
-      </c>
-      <c r="N2">
-        <v>0.03840349202796589</v>
-      </c>
-      <c r="O2">
-        <v>0.1201366128835211</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0.005206092100606968</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0.07985503990305431</v>
-      </c>
-      <c r="V2">
-        <v>0.01720180795267639</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.00838825625866833</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0.001532337420433319</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0.01211244588483981</v>
-      </c>
-      <c r="AE2">
-        <v>0.1025786316457903</v>
-      </c>
-      <c r="AF2">
-        <v>0.02825362570385796</v>
-      </c>
-      <c r="AG2">
-        <v>0.003583926915926361</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0.0180246493372624</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.02706382066976079</v>
+      </c>
+      <c r="E3">
+        <v>0.09880229579152736</v>
+      </c>
+      <c r="F3">
+        <v>0.1008352631567549</v>
+      </c>
+      <c r="G3">
+        <v>0.02540167472248549</v>
+      </c>
+      <c r="H3">
+        <v>0.04449417016159009</v>
+      </c>
+      <c r="I3">
+        <v>0.02917864288159662</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.1928148846906552</v>
+      </c>
+      <c r="M3">
+        <v>0.02614036297847054</v>
+      </c>
+      <c r="N3">
+        <v>0.02806379844018838</v>
+      </c>
+      <c r="O3">
+        <v>0.1028115977950321</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>9.154486945860832E-06</v>
+      </c>
+      <c r="T3">
+        <v>0.048355385157444</v>
+      </c>
+      <c r="U3">
+        <v>0.07229261269387841</v>
+      </c>
+      <c r="V3">
+        <v>0.02369775943432582</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0.01319542381595807</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.004535113376655757</v>
+      </c>
+      <c r="AD3">
+        <v>0.08497027056402925</v>
+      </c>
+      <c r="AE3">
+        <v>0.07060002788530309</v>
+      </c>
+      <c r="AF3">
+        <v>0.006737741297398273</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.2029300480133553</v>
-      </c>
-      <c r="G3">
-        <v>0.1743099004836132</v>
-      </c>
-      <c r="H3">
-        <v>0.0243839523784519</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.01612001231296669</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.2612027650757788</v>
-      </c>
-      <c r="N3">
-        <v>0.008542583017184489</v>
-      </c>
-      <c r="O3">
-        <v>0.005949087554763117</v>
-      </c>
-      <c r="P3">
-        <v>0.04604159994469997</v>
-      </c>
-      <c r="Q3">
-        <v>0.002151683372682401</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.07479109547406096</v>
-      </c>
-      <c r="V3">
-        <v>0.01645585810400555</v>
-      </c>
-      <c r="W3">
-        <v>0.01608538213304919</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0.03467027635274147</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0.01794929670189378</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0.04968913244502298</v>
-      </c>
-      <c r="AF3">
-        <v>0.04068509596301505</v>
-      </c>
-      <c r="AG3">
-        <v>0.00705459114029016</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0.0009876395324247742</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.001658321664799209</v>
+      </c>
+      <c r="E4">
+        <v>0.1687635257590397</v>
+      </c>
+      <c r="F4">
+        <v>0.113321308768025</v>
+      </c>
+      <c r="G4">
+        <v>0.03344442297206153</v>
+      </c>
+      <c r="H4">
+        <v>0.03801728941487373</v>
+      </c>
+      <c r="I4">
+        <v>0.0362729552956366</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.000175725108045329</v>
+      </c>
+      <c r="L4">
+        <v>0.1633766094287178</v>
+      </c>
+      <c r="M4">
+        <v>0.03497598544199935</v>
+      </c>
+      <c r="N4">
+        <v>0.005061109741107691</v>
+      </c>
+      <c r="O4">
+        <v>0.1387371595355182</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.03439135037907639</v>
+      </c>
+      <c r="U4">
+        <v>0.06232593849983798</v>
+      </c>
+      <c r="V4">
+        <v>0.02060496905002126</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0.01520264410140161</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.06126407023980948</v>
+      </c>
+      <c r="AE4">
+        <v>0.06859792810009263</v>
+      </c>
+      <c r="AF4">
+        <v>0.003808686499936563</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.09920926753084587</v>
-      </c>
-      <c r="F4">
-        <v>0.1256738871696395</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0.02651577652828388</v>
-      </c>
-      <c r="I4">
-        <v>0.04736548656558134</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.0003595980011707987</v>
-      </c>
-      <c r="L4">
-        <v>0.1306194795028028</v>
-      </c>
-      <c r="M4">
-        <v>0.2212629084967883</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0.1165363872464782</v>
-      </c>
-      <c r="U4">
-        <v>0.08772343615357127</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0.01612827924609601</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0.002768183721166776</v>
-      </c>
-      <c r="AA4">
-        <v>0.01002285616973044</v>
-      </c>
-      <c r="AB4">
-        <v>0.006842668121921212</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0.03947350409632015</v>
-      </c>
-      <c r="AE4">
-        <v>0.03352112663135218</v>
-      </c>
-      <c r="AF4">
-        <v>0.03128763537187704</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0.004689519446374135</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.1556117437711262</v>
+      </c>
+      <c r="F5">
+        <v>0.1049168030087216</v>
+      </c>
+      <c r="G5">
+        <v>0.01914212430950908</v>
+      </c>
+      <c r="H5">
+        <v>0.02799828676706067</v>
+      </c>
+      <c r="I5">
+        <v>0.04617370025447406</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.1702109924717512</v>
+      </c>
+      <c r="M5">
+        <v>0.05613289217756407</v>
+      </c>
+      <c r="N5">
+        <v>0.00393031795568307</v>
+      </c>
+      <c r="O5">
+        <v>0.153790269186415</v>
+      </c>
+      <c r="P5">
+        <v>0.000957107581722783</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.004003003529717283</v>
+      </c>
+      <c r="T5">
+        <v>0.02853065501306513</v>
+      </c>
+      <c r="U5">
+        <v>0.05220873937286945</v>
+      </c>
+      <c r="V5">
+        <v>0.03759615443059013</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.002175988863874157</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.0587042953470612</v>
+      </c>
+      <c r="AE5">
+        <v>0.06476225445899317</v>
+      </c>
+      <c r="AF5">
+        <v>0.01315467149980175</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.02018260650069554</v>
-      </c>
-      <c r="E5">
-        <v>0.07574603178797346</v>
-      </c>
-      <c r="F5">
-        <v>0.07016063378674665</v>
-      </c>
-      <c r="G5">
-        <v>0.02554441335181604</v>
-      </c>
-      <c r="H5">
-        <v>0.1963247361980084</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.04547375936846133</v>
-      </c>
-      <c r="M5">
-        <v>0.2044081930082545</v>
-      </c>
-      <c r="N5">
-        <v>0.04335573074610145</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0.01024316162988733</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.05338319683546135</v>
-      </c>
-      <c r="U5">
-        <v>0.02863603625349264</v>
-      </c>
-      <c r="V5">
-        <v>0.02956958454978924</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0.007795058174530614</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0.0103159389425093</v>
-      </c>
-      <c r="AE5">
-        <v>0.04135721623161707</v>
-      </c>
-      <c r="AF5">
-        <v>0.0612322603389075</v>
-      </c>
-      <c r="AG5">
-        <v>0.03419821812055224</v>
-      </c>
-      <c r="AH5">
-        <v>0.04207322417519559</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1132,61 +1114,61 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02051331462385681</v>
+        <v>0.1629597877145585</v>
       </c>
       <c r="E6">
-        <v>0.006555557844093176</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.12032370793091</v>
       </c>
       <c r="G6">
-        <v>0.02409479471203695</v>
+        <v>0.02200581946633304</v>
       </c>
       <c r="H6">
-        <v>0.3584431042379857</v>
+        <v>0.06254568881314117</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.006756873532457942</v>
+        <v>0.008868598199338463</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0004087701495144756</v>
       </c>
       <c r="L6">
-        <v>0.08110026839183615</v>
+        <v>0.2200049222862873</v>
       </c>
       <c r="M6">
-        <v>0.155100368069891</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.03115842138224091</v>
+        <v>0.1107780627245009</v>
       </c>
       <c r="O6">
-        <v>0.01321286408151596</v>
+        <v>0.02008770121071894</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.008837782356415398</v>
       </c>
       <c r="Q6">
-        <v>0.01760163875795359</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.0104462552738739</v>
       </c>
       <c r="T6">
-        <v>0.06897997570232654</v>
+        <v>0.03658151026942468</v>
       </c>
       <c r="U6">
-        <v>0.03601227134036555</v>
+        <v>0.06348282043684206</v>
       </c>
       <c r="V6">
-        <v>0.03117218279403674</v>
+        <v>0.004885895033735012</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1201,36 +1183,33 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.007203306873766927</v>
+        <v>0.004157029046651032</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.0177407548225564</v>
       </c>
       <c r="AD6">
-        <v>0.01357861353158792</v>
+        <v>0.08018138573615158</v>
       </c>
       <c r="AE6">
-        <v>0.03801787359746096</v>
+        <v>0.04129566237126675</v>
       </c>
       <c r="AF6">
-        <v>0.04717991363016376</v>
+        <v>0.004407846157780624</v>
       </c>
       <c r="AG6">
-        <v>0.01649550232964162</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.02682315456678177</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
         <v>0</v>
       </c>
     </row>
@@ -1241,15 +1220,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1356,13 +1335,10 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1374,317 +1350,311 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2322838788058234</v>
+        <v>0.2347845305294789</v>
       </c>
       <c r="F2">
-        <v>0.2322838788058234</v>
+        <v>0.2595134474367785</v>
       </c>
       <c r="G2">
-        <v>0.4888330337345688</v>
+        <v>0.4054574089957763</v>
       </c>
       <c r="H2">
-        <v>0.4888330337345688</v>
+        <v>0.4054574089957763</v>
       </c>
       <c r="I2">
-        <v>0.511207746034443</v>
+        <v>0.4322418148873759</v>
       </c>
       <c r="J2">
-        <v>0.511207746034443</v>
+        <v>0.4373447509329108</v>
       </c>
       <c r="K2">
-        <v>0.511207746034443</v>
+        <v>0.4373447509329108</v>
       </c>
       <c r="L2">
-        <v>0.5489807354121359</v>
+        <v>0.527114374222994</v>
       </c>
       <c r="M2">
-        <v>0.564723081965397</v>
+        <v>0.5949672451820867</v>
       </c>
       <c r="N2">
-        <v>0.6031265739933629</v>
+        <v>0.6075309964787958</v>
       </c>
       <c r="O2">
-        <v>0.7232631868768841</v>
+        <v>0.7037933595778159</v>
       </c>
       <c r="P2">
-        <v>0.7232631868768841</v>
+        <v>0.7037933595778159</v>
       </c>
       <c r="Q2">
-        <v>0.7232631868768841</v>
+        <v>0.7037933595778159</v>
       </c>
       <c r="R2">
-        <v>0.728469278977491</v>
+        <v>0.7037933595778159</v>
       </c>
       <c r="S2">
-        <v>0.728469278977491</v>
+        <v>0.7037933595778159</v>
       </c>
       <c r="T2">
-        <v>0.728469278977491</v>
+        <v>0.7315964917531674</v>
       </c>
       <c r="U2">
-        <v>0.8083243188805453</v>
+        <v>0.807074215043121</v>
       </c>
       <c r="V2">
-        <v>0.8255261268332217</v>
+        <v>0.8293490217865316</v>
       </c>
       <c r="W2">
-        <v>0.8255261268332217</v>
+        <v>0.8293490217865316</v>
       </c>
       <c r="X2">
-        <v>0.8255261268332217</v>
+        <v>0.8293490217865316</v>
       </c>
       <c r="Y2">
-        <v>0.83391438309189</v>
+        <v>0.8362782724723318</v>
       </c>
       <c r="Z2">
-        <v>0.83391438309189</v>
+        <v>0.8362782724723318</v>
       </c>
       <c r="AA2">
-        <v>0.83391438309189</v>
+        <v>0.8537348511764604</v>
       </c>
       <c r="AB2">
-        <v>0.8354467205123234</v>
+        <v>0.8537348511764604</v>
       </c>
       <c r="AC2">
-        <v>0.8354467205123234</v>
+        <v>0.8537348511764604</v>
       </c>
       <c r="AD2">
-        <v>0.8475591663971632</v>
+        <v>0.8842936968561116</v>
       </c>
       <c r="AE2">
-        <v>0.9501377980429535</v>
+        <v>0.9792137382177496</v>
       </c>
       <c r="AF2">
-        <v>0.9783914237468114</v>
+        <v>0.9967693266393247</v>
       </c>
       <c r="AG2">
-        <v>0.9819753506627378</v>
+        <v>0.9967693266393247</v>
       </c>
       <c r="AH2">
-        <v>0.9819753506627378</v>
+        <v>0.9967693266393247</v>
       </c>
       <c r="AI2">
-        <v>0.9819753506627378</v>
+        <v>0.9967693266393247</v>
       </c>
       <c r="AJ2">
         <v>1</v>
       </c>
-      <c r="AK2">
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.02706382066976079</v>
+      </c>
+      <c r="E3">
+        <v>0.1258661164612881</v>
+      </c>
+      <c r="F3">
+        <v>0.226701379618043</v>
+      </c>
+      <c r="G3">
+        <v>0.2521030543405285</v>
+      </c>
+      <c r="H3">
+        <v>0.2965972245021186</v>
+      </c>
+      <c r="I3">
+        <v>0.3257758673837152</v>
+      </c>
+      <c r="J3">
+        <v>0.3257758673837152</v>
+      </c>
+      <c r="K3">
+        <v>0.3257758673837152</v>
+      </c>
+      <c r="L3">
+        <v>0.5185907520743703</v>
+      </c>
+      <c r="M3">
+        <v>0.5447311150528409</v>
+      </c>
+      <c r="N3">
+        <v>0.5727949134930292</v>
+      </c>
+      <c r="O3">
+        <v>0.6756065112880614</v>
+      </c>
+      <c r="P3">
+        <v>0.6756065112880614</v>
+      </c>
+      <c r="Q3">
+        <v>0.6756065112880614</v>
+      </c>
+      <c r="R3">
+        <v>0.6756065112880614</v>
+      </c>
+      <c r="S3">
+        <v>0.6756156657750072</v>
+      </c>
+      <c r="T3">
+        <v>0.7239710509324512</v>
+      </c>
+      <c r="U3">
+        <v>0.7962636636263296</v>
+      </c>
+      <c r="V3">
+        <v>0.8199614230606554</v>
+      </c>
+      <c r="W3">
+        <v>0.8199614230606554</v>
+      </c>
+      <c r="X3">
+        <v>0.8199614230606554</v>
+      </c>
+      <c r="Y3">
+        <v>0.8199614230606554</v>
+      </c>
+      <c r="Z3">
+        <v>0.8199614230606554</v>
+      </c>
+      <c r="AA3">
+        <v>0.8331568468766135</v>
+      </c>
+      <c r="AB3">
+        <v>0.8331568468766135</v>
+      </c>
+      <c r="AC3">
+        <v>0.8376919602532693</v>
+      </c>
+      <c r="AD3">
+        <v>0.9226622308172986</v>
+      </c>
+      <c r="AE3">
+        <v>0.9932622587026017</v>
+      </c>
+      <c r="AF3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AG3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.001658321664799209</v>
+      </c>
+      <c r="E4">
+        <v>0.1704218474238389</v>
+      </c>
+      <c r="F4">
+        <v>0.2837431561918639</v>
+      </c>
+      <c r="G4">
+        <v>0.3171875791639254</v>
+      </c>
+      <c r="H4">
+        <v>0.3552048685787992</v>
+      </c>
+      <c r="I4">
+        <v>0.3914778238744358</v>
+      </c>
+      <c r="J4">
+        <v>0.3914778238744358</v>
+      </c>
+      <c r="K4">
+        <v>0.3916535489824811</v>
+      </c>
+      <c r="L4">
+        <v>0.555030158411199</v>
+      </c>
+      <c r="M4">
+        <v>0.5900061438531983</v>
+      </c>
+      <c r="N4">
+        <v>0.595067253594306</v>
+      </c>
+      <c r="O4">
+        <v>0.7338044131298241</v>
+      </c>
+      <c r="P4">
+        <v>0.7338044131298241</v>
+      </c>
+      <c r="Q4">
+        <v>0.7338044131298241</v>
+      </c>
+      <c r="R4">
+        <v>0.7338044131298241</v>
+      </c>
+      <c r="S4">
+        <v>0.7338044131298241</v>
+      </c>
+      <c r="T4">
+        <v>0.7681957635089005</v>
+      </c>
+      <c r="U4">
+        <v>0.8305217020087385</v>
+      </c>
+      <c r="V4">
+        <v>0.8511266710587598</v>
+      </c>
+      <c r="W4">
+        <v>0.8511266710587598</v>
+      </c>
+      <c r="X4">
+        <v>0.8511266710587598</v>
+      </c>
+      <c r="Y4">
+        <v>0.8511266710587598</v>
+      </c>
+      <c r="Z4">
+        <v>0.8511266710587598</v>
+      </c>
+      <c r="AA4">
+        <v>0.8663293151601614</v>
+      </c>
+      <c r="AB4">
+        <v>0.8663293151601614</v>
+      </c>
+      <c r="AC4">
+        <v>0.8663293151601614</v>
+      </c>
+      <c r="AD4">
+        <v>0.9275933853999709</v>
+      </c>
+      <c r="AE4">
+        <v>0.9961913135000635</v>
+      </c>
+      <c r="AF4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.2029300480133553</v>
-      </c>
-      <c r="G3">
-        <v>0.3772399484969685</v>
-      </c>
-      <c r="H3">
-        <v>0.4016239008754204</v>
-      </c>
-      <c r="I3">
-        <v>0.4016239008754204</v>
-      </c>
-      <c r="J3">
-        <v>0.4177439131883871</v>
-      </c>
-      <c r="K3">
-        <v>0.4177439131883871</v>
-      </c>
-      <c r="L3">
-        <v>0.4177439131883871</v>
-      </c>
-      <c r="M3">
-        <v>0.6789466782641659</v>
-      </c>
-      <c r="N3">
-        <v>0.6874892612813504</v>
-      </c>
-      <c r="O3">
-        <v>0.6934383488361134</v>
-      </c>
-      <c r="P3">
-        <v>0.7394799487808135</v>
-      </c>
-      <c r="Q3">
-        <v>0.7416316321534959</v>
-      </c>
-      <c r="R3">
-        <v>0.7416316321534959</v>
-      </c>
-      <c r="S3">
-        <v>0.7416316321534959</v>
-      </c>
-      <c r="T3">
-        <v>0.7416316321534959</v>
-      </c>
-      <c r="U3">
-        <v>0.8164227276275569</v>
-      </c>
-      <c r="V3">
-        <v>0.8328785857315624</v>
-      </c>
-      <c r="W3">
-        <v>0.8489639678646116</v>
-      </c>
-      <c r="X3">
-        <v>0.8489639678646116</v>
-      </c>
-      <c r="Y3">
-        <v>0.883634244217353</v>
-      </c>
-      <c r="Z3">
-        <v>0.883634244217353</v>
-      </c>
-      <c r="AA3">
-        <v>0.883634244217353</v>
-      </c>
-      <c r="AB3">
-        <v>0.9015835409192469</v>
-      </c>
-      <c r="AC3">
-        <v>0.9015835409192469</v>
-      </c>
-      <c r="AD3">
-        <v>0.9015835409192469</v>
-      </c>
-      <c r="AE3">
-        <v>0.9512726733642698</v>
-      </c>
-      <c r="AF3">
-        <v>0.9919577693272849</v>
-      </c>
-      <c r="AG3">
-        <v>0.999012360467575</v>
-      </c>
-      <c r="AH3">
-        <v>0.999012360467575</v>
-      </c>
-      <c r="AI3">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AJ3">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AK3">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.09920926753084587</v>
-      </c>
-      <c r="F4">
-        <v>0.2248831547004854</v>
-      </c>
-      <c r="G4">
-        <v>0.2248831547004854</v>
-      </c>
-      <c r="H4">
-        <v>0.2513989312287693</v>
-      </c>
-      <c r="I4">
-        <v>0.2987644177943506</v>
-      </c>
-      <c r="J4">
-        <v>0.2987644177943506</v>
-      </c>
-      <c r="K4">
-        <v>0.2991240157955214</v>
-      </c>
-      <c r="L4">
-        <v>0.4297434952983242</v>
-      </c>
-      <c r="M4">
-        <v>0.6510064037951125</v>
-      </c>
-      <c r="N4">
-        <v>0.6510064037951125</v>
-      </c>
-      <c r="O4">
-        <v>0.6510064037951125</v>
-      </c>
-      <c r="P4">
-        <v>0.6510064037951125</v>
-      </c>
-      <c r="Q4">
-        <v>0.6510064037951125</v>
-      </c>
-      <c r="R4">
-        <v>0.6510064037951125</v>
-      </c>
-      <c r="S4">
-        <v>0.6510064037951125</v>
-      </c>
-      <c r="T4">
-        <v>0.7675427910415907</v>
-      </c>
-      <c r="U4">
-        <v>0.855266227195162</v>
-      </c>
-      <c r="V4">
-        <v>0.855266227195162</v>
-      </c>
-      <c r="W4">
-        <v>0.855266227195162</v>
-      </c>
-      <c r="X4">
-        <v>0.871394506441258</v>
-      </c>
-      <c r="Y4">
-        <v>0.871394506441258</v>
-      </c>
-      <c r="Z4">
-        <v>0.8741626901624249</v>
-      </c>
-      <c r="AA4">
-        <v>0.8841855463321553</v>
-      </c>
-      <c r="AB4">
-        <v>0.8910282144540765</v>
-      </c>
-      <c r="AC4">
-        <v>0.8910282144540765</v>
-      </c>
-      <c r="AD4">
-        <v>0.9305017185503967</v>
-      </c>
-      <c r="AE4">
-        <v>0.9640228451817489</v>
-      </c>
-      <c r="AF4">
-        <v>0.9953104805536259</v>
-      </c>
       <c r="AG4">
-        <v>0.9953104805536259</v>
+        <v>1</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -1695,109 +1665,106 @@
       <c r="AJ4">
         <v>1</v>
       </c>
-      <c r="AK4">
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.1556117437711262</v>
+      </c>
+      <c r="F5">
+        <v>0.2605285467798478</v>
+      </c>
+      <c r="G5">
+        <v>0.2796706710893568</v>
+      </c>
+      <c r="H5">
+        <v>0.3076689578564175</v>
+      </c>
+      <c r="I5">
+        <v>0.3538426581108916</v>
+      </c>
+      <c r="J5">
+        <v>0.3538426581108916</v>
+      </c>
+      <c r="K5">
+        <v>0.3538426581108916</v>
+      </c>
+      <c r="L5">
+        <v>0.5240536505826427</v>
+      </c>
+      <c r="M5">
+        <v>0.5801865427602069</v>
+      </c>
+      <c r="N5">
+        <v>0.58411686071589</v>
+      </c>
+      <c r="O5">
+        <v>0.737907129902305</v>
+      </c>
+      <c r="P5">
+        <v>0.7388642374840277</v>
+      </c>
+      <c r="Q5">
+        <v>0.7388642374840277</v>
+      </c>
+      <c r="R5">
+        <v>0.7388642374840277</v>
+      </c>
+      <c r="S5">
+        <v>0.742867241013745</v>
+      </c>
+      <c r="T5">
+        <v>0.7713978960268102</v>
+      </c>
+      <c r="U5">
+        <v>0.8236066353996796</v>
+      </c>
+      <c r="V5">
+        <v>0.8612027898302698</v>
+      </c>
+      <c r="W5">
+        <v>0.8612027898302698</v>
+      </c>
+      <c r="X5">
+        <v>0.8612027898302698</v>
+      </c>
+      <c r="Y5">
+        <v>0.8612027898302698</v>
+      </c>
+      <c r="Z5">
+        <v>0.8612027898302698</v>
+      </c>
+      <c r="AA5">
+        <v>0.8633787786941439</v>
+      </c>
+      <c r="AB5">
+        <v>0.8633787786941439</v>
+      </c>
+      <c r="AC5">
+        <v>0.8633787786941439</v>
+      </c>
+      <c r="AD5">
+        <v>0.9220830740412052</v>
+      </c>
+      <c r="AE5">
+        <v>0.9868453285001983</v>
+      </c>
+      <c r="AF5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.02018260650069554</v>
-      </c>
-      <c r="E5">
-        <v>0.095928638288669</v>
-      </c>
-      <c r="F5">
-        <v>0.1660892720754157</v>
-      </c>
-      <c r="G5">
-        <v>0.1916336854272317</v>
-      </c>
-      <c r="H5">
-        <v>0.3879584216252401</v>
-      </c>
-      <c r="I5">
-        <v>0.3879584216252401</v>
-      </c>
-      <c r="J5">
-        <v>0.3879584216252401</v>
-      </c>
-      <c r="K5">
-        <v>0.3879584216252401</v>
-      </c>
-      <c r="L5">
-        <v>0.4334321809937014</v>
-      </c>
-      <c r="M5">
-        <v>0.6378403740019559</v>
-      </c>
-      <c r="N5">
-        <v>0.6811961047480574</v>
-      </c>
-      <c r="O5">
-        <v>0.6811961047480574</v>
-      </c>
-      <c r="P5">
-        <v>0.6811961047480574</v>
-      </c>
-      <c r="Q5">
-        <v>0.6914392663779447</v>
-      </c>
-      <c r="R5">
-        <v>0.6914392663779447</v>
-      </c>
-      <c r="S5">
-        <v>0.6914392663779447</v>
-      </c>
-      <c r="T5">
-        <v>0.7448224632134061</v>
-      </c>
-      <c r="U5">
-        <v>0.7734584994668987</v>
-      </c>
-      <c r="V5">
-        <v>0.8030280840166879</v>
-      </c>
-      <c r="W5">
-        <v>0.8030280840166879</v>
-      </c>
-      <c r="X5">
-        <v>0.8030280840166879</v>
-      </c>
-      <c r="Y5">
-        <v>0.8030280840166879</v>
-      </c>
-      <c r="Z5">
-        <v>0.8030280840166879</v>
-      </c>
-      <c r="AA5">
-        <v>0.8108231421912185</v>
-      </c>
-      <c r="AB5">
-        <v>0.8108231421912185</v>
-      </c>
-      <c r="AC5">
-        <v>0.8108231421912185</v>
-      </c>
-      <c r="AD5">
-        <v>0.8211390811337278</v>
-      </c>
-      <c r="AE5">
-        <v>0.8624962973653448</v>
-      </c>
-      <c r="AF5">
-        <v>0.9237285577042523</v>
-      </c>
       <c r="AG5">
-        <v>0.9579267758248046</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -1808,109 +1775,106 @@
       <c r="AJ5">
         <v>1</v>
       </c>
-      <c r="AK5">
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.1629597877145585</v>
+      </c>
+      <c r="E6">
+        <v>0.1629597877145585</v>
+      </c>
+      <c r="F6">
+        <v>0.2832834956454685</v>
+      </c>
+      <c r="G6">
+        <v>0.3052893151118016</v>
+      </c>
+      <c r="H6">
+        <v>0.3678350039249427</v>
+      </c>
+      <c r="I6">
+        <v>0.3678350039249427</v>
+      </c>
+      <c r="J6">
+        <v>0.3767036021242812</v>
+      </c>
+      <c r="K6">
+        <v>0.3771123722737956</v>
+      </c>
+      <c r="L6">
+        <v>0.5971172945600829</v>
+      </c>
+      <c r="M6">
+        <v>0.5971172945600829</v>
+      </c>
+      <c r="N6">
+        <v>0.7078953572845837</v>
+      </c>
+      <c r="O6">
+        <v>0.7279830584953026</v>
+      </c>
+      <c r="P6">
+        <v>0.7368208408517181</v>
+      </c>
+      <c r="Q6">
+        <v>0.7368208408517181</v>
+      </c>
+      <c r="R6">
+        <v>0.7368208408517181</v>
+      </c>
+      <c r="S6">
+        <v>0.7472670961255919</v>
+      </c>
+      <c r="T6">
+        <v>0.7838486063950166</v>
+      </c>
+      <c r="U6">
+        <v>0.8473314268318587</v>
+      </c>
+      <c r="V6">
+        <v>0.8522173218655937</v>
+      </c>
+      <c r="W6">
+        <v>0.8522173218655937</v>
+      </c>
+      <c r="X6">
+        <v>0.8522173218655937</v>
+      </c>
+      <c r="Y6">
+        <v>0.8522173218655937</v>
+      </c>
+      <c r="Z6">
+        <v>0.8522173218655937</v>
+      </c>
+      <c r="AA6">
+        <v>0.8563743509122448</v>
+      </c>
+      <c r="AB6">
+        <v>0.8563743509122448</v>
+      </c>
+      <c r="AC6">
+        <v>0.8741151057348012</v>
+      </c>
+      <c r="AD6">
+        <v>0.9542964914709529</v>
+      </c>
+      <c r="AE6">
+        <v>0.9955921538422197</v>
+      </c>
+      <c r="AF6">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.02051331462385681</v>
-      </c>
-      <c r="E6">
-        <v>0.02706887246794999</v>
-      </c>
-      <c r="F6">
-        <v>0.02706887246794999</v>
-      </c>
-      <c r="G6">
-        <v>0.05116366717998694</v>
-      </c>
-      <c r="H6">
-        <v>0.4096067714179726</v>
-      </c>
-      <c r="I6">
-        <v>0.4096067714179726</v>
-      </c>
-      <c r="J6">
-        <v>0.4163636449504306</v>
-      </c>
-      <c r="K6">
-        <v>0.4163636449504306</v>
-      </c>
-      <c r="L6">
-        <v>0.4974639133422668</v>
-      </c>
-      <c r="M6">
-        <v>0.6525642814121577</v>
-      </c>
-      <c r="N6">
-        <v>0.6837227027943986</v>
-      </c>
-      <c r="O6">
-        <v>0.6969355668759146</v>
-      </c>
-      <c r="P6">
-        <v>0.6969355668759146</v>
-      </c>
-      <c r="Q6">
-        <v>0.7145372056338682</v>
-      </c>
-      <c r="R6">
-        <v>0.7145372056338682</v>
-      </c>
-      <c r="S6">
-        <v>0.7145372056338682</v>
-      </c>
-      <c r="T6">
-        <v>0.7835171813361947</v>
-      </c>
-      <c r="U6">
-        <v>0.8195294526765603</v>
-      </c>
-      <c r="V6">
-        <v>0.8507016354705971</v>
-      </c>
-      <c r="W6">
-        <v>0.8507016354705971</v>
-      </c>
-      <c r="X6">
-        <v>0.8507016354705971</v>
-      </c>
-      <c r="Y6">
-        <v>0.8507016354705971</v>
-      </c>
-      <c r="Z6">
-        <v>0.8507016354705971</v>
-      </c>
-      <c r="AA6">
-        <v>0.857904942344364</v>
-      </c>
-      <c r="AB6">
-        <v>0.857904942344364</v>
-      </c>
-      <c r="AC6">
-        <v>0.857904942344364</v>
-      </c>
-      <c r="AD6">
-        <v>0.8714835558759519</v>
-      </c>
-      <c r="AE6">
-        <v>0.9095014294734129</v>
-      </c>
-      <c r="AF6">
-        <v>0.9566813431035767</v>
-      </c>
       <c r="AG6">
-        <v>0.9731768454332183</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -1919,9 +1883,6 @@
         <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
         <v>1</v>
       </c>
     </row>
@@ -1940,48 +1901,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1990,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.511207746034443</v>
+        <v>0.527114374222994</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -2008,36 +1969,36 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6789466782641659</v>
+        <v>0.5185907520743703</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -2049,21 +2010,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -2072,16 +2033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6510064037951125</v>
+        <v>0.555030158411199</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -2090,21 +2051,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2113,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6378403740019559</v>
+        <v>0.5240536505826427</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -2131,39 +2092,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>0.02706887246794999</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6525642814121577</v>
+        <v>0.5971172945600829</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -2172,16 +2133,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2199,48 +2160,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2255,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7232631868768841</v>
+        <v>0.7037933595778159</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -2267,39 +2228,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7394799487808135</v>
+        <v>0.7239710509324512</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -2308,21 +2269,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2331,16 +2292,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7675427910415907</v>
+        <v>0.7338044131298241</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -2349,21 +2310,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2372,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7448224632134061</v>
+        <v>0.737907129902305</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -2390,36 +2351,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>0.02706887246794999</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7145372056338682</v>
+        <v>0.7078953572845837</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -2431,16 +2392,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2458,48 +2419,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2514,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8083243188805453</v>
+        <v>0.807074215043121</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -2526,39 +2487,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8164227276275569</v>
+        <v>0.8199614230606554</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -2567,21 +2528,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2596,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.855266227195162</v>
+        <v>0.8305217020087385</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2608,21 +2569,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2631,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8030280840166879</v>
+        <v>0.8236066353996796</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -2649,39 +2610,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>0.02706887246794999</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8195294526765603</v>
+        <v>0.8473314268318587</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -2690,16 +2651,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2717,48 +2678,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2773,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9501377980429535</v>
+        <v>0.9792137382177496</v>
       </c>
       <c r="G2">
         <v>28</v>
@@ -2785,39 +2746,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9226622308172986</v>
+      </c>
+      <c r="G3">
         <v>27</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9015835409192469</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -2826,21 +2787,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2855,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9305017185503967</v>
+        <v>0.9275933853999709</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -2867,21 +2828,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2890,16 +2851,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9237285577042523</v>
+        <v>0.9220830740412052</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -2908,39 +2869,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>0.02706887246794999</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9095014294734129</v>
+        <v>0.9542964914709529</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -2949,16 +2910,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
